--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.99999963698062</v>
+        <v>0.9999798272297047</v>
       </c>
       <c r="E2">
-        <v>0.99999963698062</v>
+        <v>0.9999798272297047</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999999999999356</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E3">
-        <v>0.9999999999999356</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9998950377456951</v>
+        <v>0.9984259553661755</v>
       </c>
       <c r="E4">
-        <v>0.9998950377456951</v>
+        <v>0.9984259553661755</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.637332010771367E-05</v>
+        <v>5.580738928185382E-05</v>
       </c>
       <c r="E5">
-        <v>1.637332010771367E-05</v>
+        <v>5.580738928185382E-05</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>7.913358700391019E-15</v>
+        <v>1.642102679696414E-08</v>
       </c>
       <c r="E6">
-        <v>7.913358700391019E-15</v>
+        <v>1.642102679696414E-08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999999603031</v>
+        <v>0.9999999999288467</v>
       </c>
       <c r="E7">
-        <v>3.969691242389217E-11</v>
+        <v>7.115330546980658E-11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.21358764831469E-08</v>
+        <v>7.318220282822119E-09</v>
       </c>
       <c r="E8">
-        <v>0.9999999878641235</v>
+        <v>0.9999999926817797</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9958000667745427</v>
+        <v>0.8953278219507228</v>
       </c>
       <c r="E9">
-        <v>0.004199933225457309</v>
+        <v>0.1046721780492772</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9864204922263061</v>
+        <v>0.999793436747583</v>
       </c>
       <c r="E11">
-        <v>0.01357950777369388</v>
+        <v>0.0002065632524169692</v>
       </c>
       <c r="F11">
-        <v>7.260790348052979</v>
+        <v>7.247763156890869</v>
       </c>
       <c r="G11">
         <v>0.6</v>
